--- a/static/files/文献3.xlsx
+++ b/static/files/文献3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A_web_design\resource\root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A_web_design\www.yunjing.com\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73377ACF-589A-4B11-A0E6-5EC0CDFB6343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8632825-1594-4CF4-803E-7792FD608565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
   <si>
     <t>朝代</t>
   </si>
@@ -249,141 +249,6 @@
     <t>翠渠摘稿 / [明]周瑛 / 8卷</t>
   </si>
   <si>
-    <t>清</t>
-  </si>
-  <si>
-    <t>嘉庆宜章县志（清嘉庆刻本）</t>
-  </si>
-  <si>
-    <t>历朝茶马奏议（清初刻本）/[清]廖攀龙</t>
-  </si>
-  <si>
-    <t>乾隆通许县志</t>
-  </si>
-  <si>
-    <t>漫堂说诗（清学海类编本）</t>
-  </si>
-  <si>
-    <t>绣谱 / [清]丁佩着</t>
-  </si>
-  <si>
-    <t>饴山诗余 / [清]赵执信</t>
-  </si>
-  <si>
-    <t>妇人集 / [清]陈维崧</t>
-  </si>
-  <si>
-    <t>雪夜诗谈 / [清]彭端淑</t>
-  </si>
-  <si>
-    <t>传恭堂诗集 / [清]张廷瓒 / 5卷</t>
-  </si>
-  <si>
-    <t>词旨 / [清]胡元仪 / 2卷</t>
-  </si>
-  <si>
-    <t>绛云楼书目 / [清]钱谦益 / 4卷</t>
-  </si>
-  <si>
-    <t>授衣广训 / [清]董诰 / 2卷</t>
-  </si>
-  <si>
-    <t>黄庭内景经及外景经 / [清]蒋国祚注</t>
-  </si>
-  <si>
-    <t>百科</t>
-  </si>
-  <si>
-    <t>秋盦遗稾 / [清]黄易</t>
-  </si>
-  <si>
-    <t>梁园归棹录 / [清]余集 / 不分卷</t>
-  </si>
-  <si>
-    <t>约斋文集 / [清]冯云骧 / 4卷</t>
-  </si>
-  <si>
-    <t>博物要览 / [清]谷应泰 / 12卷</t>
-  </si>
-  <si>
-    <t>月令精钞 / [清]郑泰 / 2卷</t>
-  </si>
-  <si>
-    <t>春芜词 / [清]越闓 / 2卷</t>
-  </si>
-  <si>
-    <t>甯古塔山水记 / [清]张缙彦 / 不分卷</t>
-  </si>
-  <si>
-    <t>陶说 / [清]朱琰 / 6卷</t>
-  </si>
-  <si>
-    <t>然脂余韵 / [清]王蕴章</t>
-  </si>
-  <si>
-    <t>左海文集乙编 / [清]陈寿祺 / 2卷</t>
-  </si>
-  <si>
-    <t>经锄堂诗稿 / [清]叶奕苞 / 8卷</t>
-  </si>
-  <si>
-    <t>蓼花词 / [清]余光耿 / 不分卷</t>
-  </si>
-  <si>
-    <t>沧海遗珠 / [清]小蓝田忏情侍者 / 二卷</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第三回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第六回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第八回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第十五回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第十八回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第十九回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第二十八回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第四十九回</t>
-  </si>
-  <si>
-    <t>凫靥裘</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第五十一回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第五十二回</t>
-  </si>
-  <si>
-    <t>雀金裘</t>
-  </si>
-  <si>
-    <t>大红彩绣云龙捧寿的靠背引枕</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第五十三回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第五十六回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第六十三回</t>
-  </si>
-  <si>
-    <t>红楼梦/[清]曹雪芹/第六十八回</t>
-  </si>
-  <si>
     <r>
       <t>六月十二日有五人来，乃三更中，一人年可三十馀，黄华冠</t>
     </r>
@@ -2003,1212 +1868,6 @@
         <charset val="134"/>
       </rPr>
       <t>裳，著向风前聊徜徉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>嵽嵲岑峰镇楚边，天孙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>几重悬</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>如此光景，而欲望</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成效，何日之有</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>又何患汧渭间不复睹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>之成群哉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>天章灿烂曾修餙，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>离披未剪裁，彩曵残星摇碧落，光凝初日绚蓬莱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>天机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用在我，剪裁妙处非刀尺</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>于盈丈之间作疎花片石而未觉其宽自然凑合，疑为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天衣，想入_xD849_微茫，何论舆糠舟芥至如指端</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>一卷天孙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,焚香读、我亦情怡。鸱夷子,湖山花月,珍重共西施。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>裁成绿羽裳，学戴星冠簮日月</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>蒋虎臣过旧院有感</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>袖歌残翠黛尘楼台塌尽曲池湮荒园一种瓢儿菜独占秦淮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>组织</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灿，毫素烟霞新</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>袍</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>四六</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，启天机锦</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>此课饶萌隶徧播琴于麻土绢乡志陋梧浔逾纂组于氷纨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，福原富本咸思纎纩之遗崇朴黜奢远轶弋绨之俭曰安</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>凤罗金纽纒</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>唐卢颢然嵩山草堂有倒景台樾馆枕烟庭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，淙期仙磴涤烦几羃翠庭洞元室金碧潭诸胜所图十志旧</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>缄幽怀，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>织回纹修恨谱，眉峰损翠痕赋新愁潄玉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>沙汭之灿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>五色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>帐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>帝乃张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>帷，燃九光灯，焚百和香候之</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>帐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>灿若</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>如意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>华若</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>裁成绿羽裳</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>织流霞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新裁</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>雾机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云锦</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>云锦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>裘</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>彩绣辉煌，恍若神妃仙子。头上戴着金丝八宝攒珠髻，绾着朝阳五凤挂珠钗；项上带着赤金盘螭璎珞圈；裙边系着豆绿宫绦双衡比目玫瑰珮；身上穿着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缕金百蝶穿花大红洋缎窄裉袄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，外罩五彩刻丝石青银鼠褂；下着翡翠撒花洋绉裙。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>临窗大炕上铺着猩红洋罽，正面设着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大红金钱蟒靠背，石青金钱蟒引枕，秋香色金钱蟒大条褥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>地下面西一溜四张椅上，都搭着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>银红撒花椅搭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，底下四副脚踏</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>头上戴着束发嵌宝紫金冠，齐眉勒着二龙抢珠金抹额；穿一件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>二色金百蝶穿花大红箭袖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，束着五彩丝攒花结长穗宫绦，外罩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>石青起花八团倭缎排穗褂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；登着青缎粉底小朝靴。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>身上穿着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>银红撒花半旧大袄</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>只见门外錾铜钩上悬着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大红撒花软帘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，南窗下是炕，炕上大红毡条，靠东边板壁立着一个锁子锦靠背与一个引枕，铺着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金心绿闪缎大坐褥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，旁边有雕漆痰盒。那凤姐儿家常带着秋板貂鼠昭君套，围着攒珠勒子，穿着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>桃红撒花袄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，石青刻丝灰鼠披风，大红洋绉银鼠皮裙，粉光脂艳，端端正正坐在那里，手内拿着小铜火箸儿拨手炉内的灰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>先就看见薛宝钗坐在炕上作针线，头上挽着漆黑油光的儿，蜜合色棉袄，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玫瑰紫二色金银鼠比肩褂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，葱黄绫棉裙，一色半新不旧，看去不觉奢华</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>一面看宝玉头上戴着累丝嵌宝紫金冠，额上勒着二龙抢珠金抹额，身上穿着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秋香色立蟒白狐腋箭袖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，系着五色蝴蝶鸾绦，项上挂着长命锁、记名符，另外有一块落草时衔下来的宝玉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大红羽缎对襟褂子</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>北静王水溶头上戴着洁白簪缨银翅王帽，穿着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>江牙海水五爪坐龙白蟒袍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，系着碧玉红鞓带，面如美玉，目似明星，真好秀丽人物。宝玉忙抢上来参见，水溶连忙从轿内伸出手来挽住。见宝玉戴着束发银冠，勒着双龙出海抹额，穿着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白蟒箭袖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，围着攒珠银带，面若春花，目如点漆。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>富贵长春”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宫缎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四匹，“福寿绵长”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宫绸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四匹，紫金“笔锭如意”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>内帑彩缎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金银等物</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>宝玉穿着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大红金蟒狐腋箭袖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，外罩石青貂裘排穗褂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>大红妆缎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四十匹，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蟒缎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四十匹，上用纱各色一百匹，金项圈四个</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>只见众姊妹都在那边，都是一色大红猩猩毡与羽毛缎斗篷，独李纨穿一件青哆罗呢对襟褂子，薛宝钗穿一件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>莲青斗纹锦上添花洋线番羓丝的鹤氅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；邢岫烟仍是家常旧衣，并无避雪之衣。一时史湘云来了，穿着贾母与他的一件貂鼠脑袋面子大毛黑灰鼠里子里外发烧大褂子，头上带着一顶挖云鹅黄片金里大红猩猩毡昭君套，又围着大貂鼠风领</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>只见他里头穿着一件半新的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>靠色三镶领袖秋香色盘金五色绣龙窄裉小袖掩衿银鼠短袄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，里面短短的一件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水红妆缎狐肷褶子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，腰里紧紧束着一条蝴蝶结子长穗五色宫绦，脚下也穿着麂皮小靴，越显的蜂腰猿臂、鹤势螂形</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>红百子刻丝银鼠袄子，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>葱绿盘金彩绣绵裙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，外面穿着青缎灰鼠褂</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>宝玉身上穿着荔色哆罗呢的天马箭袖，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大红猩猩毡盘金彩绣石青</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>妆缎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>沿边的排穗褂子</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>上用的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>妆缎蟒缎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>十二匹，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上用杂色缎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>十二匹，上用各色纱十二匹，上用宫绸十二匹，官用各色缎纱绸绫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>宝玉只穿着大红棉纱小袄子，下面绿绫弹墨袷裤，散着裤脚，倚着一个各色玫瑰芍药花瓣装的玉色夹纱新枕头，和芳官两个先划拳。当时芳官满口嚷热，只穿着一件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玉色红青酡三色缎子斗的水田小夹袄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，束着一条柳绿汗巾，底下是水红撒花夹裤，也散着裤腿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>尤二姐一看，只见头上皆是素白银器，身上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月白缎袄，青缎披风</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，白绫素裙</t>
     </r>
   </si>
 </sst>
@@ -3379,9 +2038,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3415,12 +2071,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3428,6 +2078,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3645,9 +2304,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3685,9 +2344,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3720,26 +2379,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3772,26 +2414,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3967,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="64" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="64" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D116" sqref="A63:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3979,27 +2604,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4007,11 +2632,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -4019,11 +2644,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -4031,13 +2656,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -4045,11 +2670,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -4057,9 +2682,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8" t="s">
-        <v>124</v>
+      <c r="A7" s="18"/>
+      <c r="B7" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -4069,9 +2694,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>125</v>
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -4081,9 +2706,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>126</v>
+      <c r="A9" s="18"/>
+      <c r="B9" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -4093,9 +2718,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8" t="s">
-        <v>127</v>
+      <c r="A10" s="18"/>
+      <c r="B10" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -4105,9 +2730,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>128</v>
+      <c r="A11" s="18"/>
+      <c r="B11" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
@@ -4120,10 +2745,10 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -4131,11 +2756,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>130</v>
+      <c r="B13" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
@@ -4145,29 +2770,29 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8" t="s">
-        <v>133</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>24</v>
@@ -4177,9 +2802,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8" t="s">
-        <v>134</v>
+      <c r="A17" s="18"/>
+      <c r="B17" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>25</v>
@@ -4189,9 +2814,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8" t="s">
-        <v>135</v>
+      <c r="A18" s="18"/>
+      <c r="B18" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>26</v>
@@ -4201,9 +2826,9 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8" t="s">
-        <v>136</v>
+      <c r="A19" s="18"/>
+      <c r="B19" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
@@ -4213,9 +2838,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="8" t="s">
-        <v>137</v>
+      <c r="A20" s="18"/>
+      <c r="B20" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -4225,9 +2850,9 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="8" t="s">
-        <v>138</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
@@ -4237,9 +2862,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="8" t="s">
-        <v>139</v>
+      <c r="A22" s="18"/>
+      <c r="B22" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>30</v>
@@ -4249,9 +2874,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8" t="s">
-        <v>140</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>31</v>
@@ -4261,9 +2886,9 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="8" t="s">
-        <v>141</v>
+      <c r="A24" s="18"/>
+      <c r="B24" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>32</v>
@@ -4273,9 +2898,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="12" t="s">
-        <v>142</v>
+      <c r="A25" s="18"/>
+      <c r="B25" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>33</v>
@@ -4285,9 +2910,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="8" t="s">
-        <v>143</v>
+      <c r="A26" s="18"/>
+      <c r="B26" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>34</v>
@@ -4297,9 +2922,9 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="13" t="s">
-        <v>144</v>
+      <c r="A27" s="18"/>
+      <c r="B27" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -4309,9 +2934,9 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="8" t="s">
-        <v>145</v>
+      <c r="A28" s="18"/>
+      <c r="B28" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>36</v>
@@ -4321,9 +2946,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="8" t="s">
-        <v>146</v>
+      <c r="A29" s="18"/>
+      <c r="B29" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>37</v>
@@ -4333,9 +2958,9 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="13" t="s">
-        <v>147</v>
+      <c r="A30" s="18"/>
+      <c r="B30" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>38</v>
@@ -4345,9 +2970,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="8" t="s">
-        <v>148</v>
+      <c r="A31" s="18"/>
+      <c r="B31" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>39</v>
@@ -4357,9 +2982,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="8" t="s">
-        <v>149</v>
+      <c r="A32" s="18"/>
+      <c r="B32" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>40</v>
@@ -4369,9 +2994,9 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="12" t="s">
-        <v>150</v>
+      <c r="A33" s="18"/>
+      <c r="B33" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>41</v>
@@ -4381,9 +3006,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="12" t="s">
-        <v>151</v>
+      <c r="A34" s="18"/>
+      <c r="B34" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>42</v>
@@ -4393,9 +3018,9 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="8" t="s">
-        <v>152</v>
+      <c r="A35" s="18"/>
+      <c r="B35" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>43</v>
@@ -4405,9 +3030,9 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="12" t="s">
-        <v>153</v>
+      <c r="A36" s="18"/>
+      <c r="B36" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>44</v>
@@ -4417,9 +3042,9 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="8" t="s">
-        <v>154</v>
+      <c r="A37" s="18"/>
+      <c r="B37" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>45</v>
@@ -4429,11 +3054,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>155</v>
+      <c r="B38" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>47</v>
@@ -4443,9 +3068,9 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="8" t="s">
-        <v>156</v>
+      <c r="A39" s="18"/>
+      <c r="B39" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>48</v>
@@ -4455,9 +3080,9 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="8" t="s">
-        <v>157</v>
+      <c r="A40" s="18"/>
+      <c r="B40" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>49</v>
@@ -4467,9 +3092,9 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="8" t="s">
-        <v>158</v>
+      <c r="A41" s="18"/>
+      <c r="B41" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>50</v>
@@ -4479,9 +3104,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="8" t="s">
-        <v>159</v>
+      <c r="A42" s="18"/>
+      <c r="B42" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>51</v>
@@ -4491,11 +3116,11 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>160</v>
+      <c r="B43" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>53</v>
@@ -4505,9 +3130,9 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="8" t="s">
-        <v>161</v>
+      <c r="A44" s="18"/>
+      <c r="B44" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>54</v>
@@ -4517,9 +3142,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="8" t="s">
-        <v>162</v>
+      <c r="A45" s="18"/>
+      <c r="B45" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>55</v>
@@ -4529,9 +3154,9 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="8" t="s">
-        <v>163</v>
+      <c r="A46" s="18"/>
+      <c r="B46" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>56</v>
@@ -4541,9 +3166,9 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="13" t="s">
-        <v>164</v>
+      <c r="A47" s="18"/>
+      <c r="B47" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>57</v>
@@ -4553,9 +3178,9 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="8" t="s">
-        <v>165</v>
+      <c r="A48" s="18"/>
+      <c r="B48" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>58</v>
@@ -4565,9 +3190,9 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="8" t="s">
-        <v>166</v>
+      <c r="A49" s="18"/>
+      <c r="B49" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>59</v>
@@ -4577,9 +3202,9 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="13" t="s">
-        <v>167</v>
+      <c r="A50" s="18"/>
+      <c r="B50" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>60</v>
@@ -4589,9 +3214,9 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="8" t="s">
-        <v>168</v>
+      <c r="A51" s="18"/>
+      <c r="B51" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>61</v>
@@ -4601,9 +3226,9 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="8" t="s">
-        <v>169</v>
+      <c r="A52" s="18"/>
+      <c r="B52" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>62</v>
@@ -4613,9 +3238,9 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="8" t="s">
-        <v>170</v>
+      <c r="A53" s="18"/>
+      <c r="B53" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>63</v>
@@ -4625,9 +3250,9 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="8" t="s">
-        <v>171</v>
+      <c r="A54" s="18"/>
+      <c r="B54" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>64</v>
@@ -4637,9 +3262,9 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="8" t="s">
-        <v>172</v>
+      <c r="A55" s="18"/>
+      <c r="B55" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>66</v>
@@ -4649,9 +3274,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="8" t="s">
-        <v>173</v>
+      <c r="A56" s="18"/>
+      <c r="B56" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>67</v>
@@ -4661,9 +3286,9 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="8" t="s">
-        <v>174</v>
+      <c r="A57" s="18"/>
+      <c r="B57" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>68</v>
@@ -4673,9 +3298,9 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="8" t="s">
-        <v>175</v>
+      <c r="A58" s="18"/>
+      <c r="B58" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>69</v>
@@ -4685,9 +3310,9 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="8" t="s">
-        <v>176</v>
+      <c r="A59" s="18"/>
+      <c r="B59" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>70</v>
@@ -4697,9 +3322,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="8" t="s">
-        <v>177</v>
+      <c r="A60" s="18"/>
+      <c r="B60" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>71</v>
@@ -4709,9 +3334,9 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="8" t="s">
-        <v>178</v>
+      <c r="A61" s="18"/>
+      <c r="B61" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>72</v>
@@ -4721,9 +3346,9 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13" t="s">
-        <v>179</v>
+      <c r="A62" s="18"/>
+      <c r="B62" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>73</v>
@@ -4733,628 +3358,331 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="A63" s="19"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="A64" s="19"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="14"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="A66" s="19"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A67" s="19"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A69" s="19"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A70" s="19"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A71" s="19"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A72" s="19"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A73" s="19"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A74" s="19"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A76" s="19"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A78" s="19"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A79" s="19"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="A80" s="19"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A81" s="19"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A82" s="19"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A83" s="19"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="A84" s="19"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="19"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="14"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="19"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="A86" s="19"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="19"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="14"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="19"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A88" s="19"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A89" s="19"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A90" s="19"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A91" s="19"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="19"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="13"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="19"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A94" s="19"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="19"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="13"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="70" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A96" s="19"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="13"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="13"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="19"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="13"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="19"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="56" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A100" s="19"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="13"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="19"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A102" s="19"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A103" s="19"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A104" s="19"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="70" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A105" s="19"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="13"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="19"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="13"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="19"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A108" s="19"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A109" s="19"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A110" s="19"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A111" s="19"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A112" s="19"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="56" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A113" s="19"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="13"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="19"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="13"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="19"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="13"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A116" s="19"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A13:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A62"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D84:D85"/>
@@ -5369,6 +3697,11 @@
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="C106:C108"/>
     <mergeCell ref="C110:C112"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A13:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A62"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
